--- a/Documentation/Time.xlsx
+++ b/Documentation/Time.xlsx
@@ -119,9 +119,6 @@
     <t>Thurs 1/30</t>
   </si>
   <si>
-    <t>Week 5</t>
-  </si>
-  <si>
     <t>Fri 2/1</t>
   </si>
   <si>
@@ -141,6 +138,9 @@
   </si>
   <si>
     <t>Thurs 2/7</t>
+  </si>
+  <si>
+    <t>Week 0</t>
   </si>
 </sst>
 </file>
@@ -460,8 +460,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -476,7 +476,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -516,7 +516,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -583,139 +583,208 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B17">
+        <f>SUM(B9:B16)</f>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B23">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B27">
+        <f>SUM(B19:B26)</f>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B31">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B37">
+        <f>SUM(B29:B36)</f>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/Time.xlsx
+++ b/Documentation/Time.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="63">
   <si>
     <t>Capstone Hours</t>
   </si>
@@ -141,6 +141,78 @@
   </si>
   <si>
     <t>Week 0</t>
+  </si>
+  <si>
+    <t>Week 5</t>
+  </si>
+  <si>
+    <t>Week 6</t>
+  </si>
+  <si>
+    <t>Week 7</t>
+  </si>
+  <si>
+    <t>Fri 2/8</t>
+  </si>
+  <si>
+    <t>Sat 2/9</t>
+  </si>
+  <si>
+    <t>Sun 2/10</t>
+  </si>
+  <si>
+    <t>Mon 2/11</t>
+  </si>
+  <si>
+    <t>Tues 2/12</t>
+  </si>
+  <si>
+    <t>Wed 2/13</t>
+  </si>
+  <si>
+    <t>Thurs 2/14</t>
+  </si>
+  <si>
+    <t>Fri 2/15</t>
+  </si>
+  <si>
+    <t>Sat 2/16</t>
+  </si>
+  <si>
+    <t>Sun 2/17</t>
+  </si>
+  <si>
+    <t>Mon 2/18</t>
+  </si>
+  <si>
+    <t>Tues 2/19</t>
+  </si>
+  <si>
+    <t>Wed 2/20</t>
+  </si>
+  <si>
+    <t>Thurs 2/21</t>
+  </si>
+  <si>
+    <t>Fri 2/22</t>
+  </si>
+  <si>
+    <t>Sat 2/23</t>
+  </si>
+  <si>
+    <t>Sun 2/24</t>
+  </si>
+  <si>
+    <t>Mon 2/25</t>
+  </si>
+  <si>
+    <t>Tues 2/26</t>
+  </si>
+  <si>
+    <t>Wed 2/27</t>
+  </si>
+  <si>
+    <t>Thurs 2/28</t>
   </si>
 </sst>
 </file>
@@ -458,10 +530,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B46"/>
+  <dimension ref="A1:B76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -756,35 +828,197 @@
       <c r="A40" t="s">
         <v>31</v>
       </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>32</v>
       </c>
+      <c r="B41">
+        <v>4</v>
+      </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>33</v>
       </c>
+      <c r="B42">
+        <v>3</v>
+      </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>34</v>
       </c>
+      <c r="B43">
+        <v>8</v>
+      </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>35</v>
       </c>
+      <c r="B44">
+        <v>8</v>
+      </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>36</v>
       </c>
+      <c r="B45">
+        <v>9</v>
+      </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>37</v>
+      </c>
+      <c r="B46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B47">
+        <f>SUM(B39:B46)</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/Time.xlsx
+++ b/Documentation/Time.xlsx
@@ -530,10 +530,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B76"/>
+  <dimension ref="A1:B77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C61" sqref="C61"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="B72" sqref="B72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -891,134 +891,224 @@
         <v>39</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B52">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B53">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B54">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B55">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B57">
+        <f>SUM(B49:B56)</f>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B61">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B62">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B63">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B64">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B67">
+        <f>SUM(B59:B66)</f>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B69">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B70">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B71">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B72">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B73">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B74">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B75">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>62</v>
+      </c>
+      <c r="B76">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B77">
+        <f>SUM(B69:B76)</f>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/Time.xlsx
+++ b/Documentation/Time.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18876" windowHeight="9924"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="18876" windowHeight="9924"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="73">
   <si>
     <t>Capstone Hours</t>
   </si>
@@ -213,6 +213,36 @@
   </si>
   <si>
     <t>Thurs 2/28</t>
+  </si>
+  <si>
+    <t>Week 8</t>
+  </si>
+  <si>
+    <t>Thurs 2/27</t>
+  </si>
+  <si>
+    <t>Fri 2/28</t>
+  </si>
+  <si>
+    <t>Sat 3/1</t>
+  </si>
+  <si>
+    <t>Sat 3/2</t>
+  </si>
+  <si>
+    <t>Sun 3/3</t>
+  </si>
+  <si>
+    <t>Mon 3/4</t>
+  </si>
+  <si>
+    <t>Tues 3/5</t>
+  </si>
+  <si>
+    <t>Wed 3/6</t>
+  </si>
+  <si>
+    <t>Thurs 3/7</t>
   </si>
 </sst>
 </file>
@@ -530,10 +560,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B77"/>
+  <dimension ref="A1:B88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="B72" sqref="B72"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="E86" sqref="E86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1111,6 +1141,89 @@
         <v>30</v>
       </c>
     </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>64</v>
+      </c>
+      <c r="B79">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>65</v>
+      </c>
+      <c r="B80">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>66</v>
+      </c>
+      <c r="B81">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>67</v>
+      </c>
+      <c r="B82">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>68</v>
+      </c>
+      <c r="B83">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>69</v>
+      </c>
+      <c r="B84">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>70</v>
+      </c>
+      <c r="B85">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>71</v>
+      </c>
+      <c r="B86">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>72</v>
+      </c>
+      <c r="B87">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B88">
+        <f>SUM(B79:B87)</f>
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
